--- a/ipy/alyData/相关性.xlsx
+++ b/ipy/alyData/相关性.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="训练集相关性" sheetId="1" r:id="rId1"/>
-    <sheet name="测试集相关性" sheetId="2" r:id="rId2"/>
+    <sheet name="训练集相关性-直接平均" sheetId="1" r:id="rId1"/>
+    <sheet name="测试集相关性-直接平均" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
   <si>
     <t>sent</t>
   </si>
@@ -30,6 +30,18 @@
   </si>
   <si>
     <t>diff_sent_ma20</t>
+  </si>
+  <si>
+    <t>diff_ma20_ma120</t>
+  </si>
+  <si>
+    <t>ret-5</t>
+  </si>
+  <si>
+    <t>ret-3</t>
+  </si>
+  <si>
+    <t>ret0</t>
   </si>
   <si>
     <t>ret1</t>
@@ -402,13 +414,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +451,20 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,345 +472,653 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.3081231138107758</v>
+        <v>0.3790454133891165</v>
       </c>
       <c r="D2">
-        <v>0.4514247955486268</v>
+        <v>0.5252823121397574</v>
       </c>
       <c r="E2">
-        <v>0.5389003590443114</v>
+        <v>0.6101078736276305</v>
       </c>
       <c r="F2">
-        <v>0.6232576187895823</v>
+        <v>0.6873347111948639</v>
       </c>
       <c r="G2">
-        <v>0.2025216081334178</v>
+        <v>0.4028550811106218</v>
       </c>
       <c r="H2">
-        <v>0.2214639253314205</v>
+        <v>0.356445444521182</v>
       </c>
       <c r="I2">
-        <v>0.2378369237341813</v>
+        <v>0.3433145436365941</v>
       </c>
       <c r="J2">
-        <v>0.2486584447897119</v>
+        <v>0.2086661144217886</v>
       </c>
       <c r="K2">
-        <v>0.277432107928569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>0.1774991981075483</v>
+      </c>
+      <c r="L2">
+        <v>0.211437838256124</v>
+      </c>
+      <c r="M2">
+        <v>0.2176931385779693</v>
+      </c>
+      <c r="N2">
+        <v>0.234393352476874</v>
+      </c>
+      <c r="O2">
+        <v>0.2662068439548389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3081231138107758</v>
+        <v>0.3790454133891165</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.7297189352370878</v>
+        <v>0.7447462024919285</v>
       </c>
       <c r="E3">
-        <v>0.5835825287321899</v>
+        <v>0.623154093144172</v>
       </c>
       <c r="F3">
-        <v>0.4839332047120392</v>
+        <v>0.5388004701610317</v>
       </c>
       <c r="G3">
-        <v>0.1589192679747072</v>
+        <v>-0.04163956084452026</v>
       </c>
       <c r="H3">
-        <v>0.09361664464635824</v>
+        <v>-0.04425241309860011</v>
       </c>
       <c r="I3">
-        <v>0.0993342199956645</v>
+        <v>-0.009568357736009708</v>
       </c>
       <c r="J3">
-        <v>0.08016797083183116</v>
+        <v>0.0407531593706929</v>
       </c>
       <c r="K3">
-        <v>0.05227688558402985</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>0.1074571143150437</v>
+      </c>
+      <c r="L3">
+        <v>0.07197788469787034</v>
+      </c>
+      <c r="M3">
+        <v>0.07287493472562541</v>
+      </c>
+      <c r="N3">
+        <v>0.05851326278157667</v>
+      </c>
+      <c r="O3">
+        <v>0.03941070079777016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4514247955486268</v>
+        <v>0.5252823121397574</v>
       </c>
       <c r="C4">
-        <v>0.7297189352370878</v>
+        <v>0.7447462024919285</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.8797688029480736</v>
+        <v>0.8923458843919713</v>
       </c>
       <c r="F4">
-        <v>0.7369240012164106</v>
+        <v>0.7680654110449368</v>
       </c>
       <c r="G4">
-        <v>0.1832295007079026</v>
+        <v>-0.09257175626282287</v>
       </c>
       <c r="H4">
-        <v>0.1414397204418142</v>
+        <v>0.0006157851802337008</v>
       </c>
       <c r="I4">
-        <v>0.1302700357037979</v>
+        <v>0.1311011811946965</v>
       </c>
       <c r="J4">
-        <v>0.1015706631121147</v>
+        <v>0.1295972078709702</v>
       </c>
       <c r="K4">
-        <v>0.09899073520586807</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>0.1350716774541215</v>
+      </c>
+      <c r="L4">
+        <v>0.1273583881898732</v>
+      </c>
+      <c r="M4">
+        <v>0.105496550094699</v>
+      </c>
+      <c r="N4">
+        <v>0.08412639427958928</v>
+      </c>
+      <c r="O4">
+        <v>0.08390587088833205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5389003590443114</v>
+        <v>0.6101078736276305</v>
       </c>
       <c r="C5">
-        <v>0.5835825287321899</v>
+        <v>0.623154093144172</v>
       </c>
       <c r="D5">
-        <v>0.8797688029480736</v>
+        <v>0.8923458843919713</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.8985192702245866</v>
+        <v>0.9112515082595756</v>
       </c>
       <c r="G5">
-        <v>0.1914393824470557</v>
+        <v>-0.1303036460281987</v>
       </c>
       <c r="H5">
-        <v>0.1607150550430995</v>
+        <v>0.1485411665283051</v>
       </c>
       <c r="I5">
-        <v>0.1505913270667198</v>
+        <v>0.233123300261574</v>
       </c>
       <c r="J5">
-        <v>0.1081496417583951</v>
+        <v>0.1696991536064601</v>
       </c>
       <c r="K5">
-        <v>0.1487877258927078</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.1464694011251587</v>
+      </c>
+      <c r="L5">
+        <v>0.1430115681931322</v>
+      </c>
+      <c r="M5">
+        <v>0.1220725082029715</v>
+      </c>
+      <c r="N5">
+        <v>0.09512240693885655</v>
+      </c>
+      <c r="O5">
+        <v>0.1284904870904181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6232576187895823</v>
+        <v>0.6873347111948639</v>
       </c>
       <c r="C6">
-        <v>0.4839332047120392</v>
+        <v>0.5388004701610317</v>
       </c>
       <c r="D6">
-        <v>0.7369240012164106</v>
+        <v>0.7680654110449368</v>
       </c>
       <c r="E6">
-        <v>0.8985192702245866</v>
+        <v>0.9112515082595756</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1890198036413576</v>
+        <v>-0.09538413775933796</v>
       </c>
       <c r="H6">
-        <v>0.1667302236442434</v>
+        <v>0.229802301207036</v>
       </c>
       <c r="I6">
-        <v>0.1662195410473743</v>
+        <v>0.2764278819298822</v>
       </c>
       <c r="J6">
-        <v>0.1614668636886112</v>
+        <v>0.1829457212309278</v>
       </c>
       <c r="K6">
-        <v>0.1893730629900033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>0.1517451044961508</v>
+      </c>
+      <c r="L6">
+        <v>0.1539863230519778</v>
+      </c>
+      <c r="M6">
+        <v>0.1423312987207947</v>
+      </c>
+      <c r="N6">
+        <v>0.1442293421540255</v>
+      </c>
+      <c r="O6">
+        <v>0.1632109749262028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2025216081334178</v>
+        <v>0.4028550811106218</v>
       </c>
       <c r="C7">
-        <v>0.1589192679747072</v>
+        <v>-0.04163956084452026</v>
       </c>
       <c r="D7">
-        <v>0.1832295007079026</v>
+        <v>-0.09257175626282287</v>
       </c>
       <c r="E7">
-        <v>0.1914393824470557</v>
+        <v>-0.1303036460281987</v>
       </c>
       <c r="F7">
-        <v>0.1890198036413576</v>
+        <v>-0.09538413775933796</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.5808029602673769</v>
+        <v>0.2441290602282828</v>
       </c>
       <c r="I7">
-        <v>0.4670896124184768</v>
+        <v>0.1780259075772721</v>
       </c>
       <c r="J7">
-        <v>0.3497115245483253</v>
+        <v>0.09077402609312314</v>
       </c>
       <c r="K7">
-        <v>0.2370271980851133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>0.07542295568209113</v>
+      </c>
+      <c r="L7">
+        <v>0.105513198511635</v>
+      </c>
+      <c r="M7">
+        <v>0.112603185855639</v>
+      </c>
+      <c r="N7">
+        <v>0.1009540008600095</v>
+      </c>
+      <c r="O7">
+        <v>0.0828050742055868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2214639253314205</v>
+        <v>0.356445444521182</v>
       </c>
       <c r="C8">
-        <v>0.09361664464635824</v>
+        <v>-0.04425241309860011</v>
       </c>
       <c r="D8">
-        <v>0.1414397204418142</v>
+        <v>0.0006157851802337008</v>
       </c>
       <c r="E8">
-        <v>0.1607150550430995</v>
+        <v>0.1485411665283051</v>
       </c>
       <c r="F8">
-        <v>0.1667302236442434</v>
+        <v>0.229802301207036</v>
       </c>
       <c r="G8">
-        <v>0.5808029602673769</v>
+        <v>0.2441290602282828</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.784319048418215</v>
+        <v>0.7788941506828553</v>
       </c>
       <c r="J8">
-        <v>0.584746122885721</v>
+        <v>0.4639415894979368</v>
       </c>
       <c r="K8">
-        <v>0.4139283678569353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0.04535030672585329</v>
+      </c>
+      <c r="L8">
+        <v>0.04659843093967869</v>
+      </c>
+      <c r="M8">
+        <v>0.0713785937855294</v>
+      </c>
+      <c r="N8">
+        <v>0.04404860095019378</v>
+      </c>
+      <c r="O8">
+        <v>0.06626309611101169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2378369237341813</v>
+        <v>0.3433145436365941</v>
       </c>
       <c r="C9">
-        <v>0.0993342199956645</v>
+        <v>-0.009568357736009708</v>
       </c>
       <c r="D9">
-        <v>0.1302700357037979</v>
+        <v>0.1311011811946965</v>
       </c>
       <c r="E9">
-        <v>0.1505913270667198</v>
+        <v>0.233123300261574</v>
       </c>
       <c r="F9">
-        <v>0.1662195410473743</v>
+        <v>0.2764278819298822</v>
       </c>
       <c r="G9">
-        <v>0.4670896124184768</v>
+        <v>0.1780259075772721</v>
       </c>
       <c r="H9">
-        <v>0.784319048418215</v>
+        <v>0.7788941506828553</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.7345672702779741</v>
+        <v>0.5741975495101082</v>
       </c>
       <c r="K9">
-        <v>0.528612589793819</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0.02578179084168984</v>
+      </c>
+      <c r="L9">
+        <v>0.04848780986769895</v>
+      </c>
+      <c r="M9">
+        <v>0.04520454568989829</v>
+      </c>
+      <c r="N9">
+        <v>0.03756079907040946</v>
+      </c>
+      <c r="O9">
+        <v>0.06700263572099757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2486584447897119</v>
+        <v>0.2086661144217886</v>
       </c>
       <c r="C10">
-        <v>0.08016797083183116</v>
+        <v>0.0407531593706929</v>
       </c>
       <c r="D10">
-        <v>0.1015706631121147</v>
+        <v>0.1295972078709702</v>
       </c>
       <c r="E10">
-        <v>0.1081496417583951</v>
+        <v>0.1696991536064601</v>
       </c>
       <c r="F10">
-        <v>0.1614668636886112</v>
+        <v>0.1829457212309278</v>
       </c>
       <c r="G10">
-        <v>0.3497115245483253</v>
+        <v>0.09077402609312314</v>
       </c>
       <c r="H10">
-        <v>0.584746122885721</v>
+        <v>0.4639415894979368</v>
       </c>
       <c r="I10">
-        <v>0.7345672702779741</v>
+        <v>0.5741975495101082</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.729677074874225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>0.05937984375194272</v>
+      </c>
+      <c r="L10">
+        <v>0.02695090414898368</v>
+      </c>
+      <c r="M10">
+        <v>0.04384454630088617</v>
+      </c>
+      <c r="N10">
+        <v>0.03170839590029936</v>
+      </c>
+      <c r="O10">
+        <v>0.04182797502820503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.277432107928569</v>
+        <v>0.1774991981075483</v>
       </c>
       <c r="C11">
-        <v>0.05227688558402985</v>
+        <v>0.1074571143150437</v>
       </c>
       <c r="D11">
-        <v>0.09899073520586807</v>
+        <v>0.1350716774541215</v>
       </c>
       <c r="E11">
-        <v>0.1487877258927078</v>
+        <v>0.1464694011251587</v>
       </c>
       <c r="F11">
-        <v>0.1893730629900033</v>
+        <v>0.1517451044961508</v>
       </c>
       <c r="G11">
-        <v>0.2370271980851133</v>
+        <v>0.07542295568209113</v>
       </c>
       <c r="H11">
-        <v>0.4139283678569353</v>
+        <v>0.04535030672585329</v>
       </c>
       <c r="I11">
-        <v>0.528612589793819</v>
+        <v>0.02578179084168984</v>
       </c>
       <c r="J11">
-        <v>0.729677074874225</v>
+        <v>0.05937984375194272</v>
       </c>
       <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.579592557892147</v>
+      </c>
+      <c r="M11">
+        <v>0.4701371981406959</v>
+      </c>
+      <c r="N11">
+        <v>0.3485758256677501</v>
+      </c>
+      <c r="O11">
+        <v>0.2361965145932516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.211437838256124</v>
+      </c>
+      <c r="C12">
+        <v>0.07197788469787034</v>
+      </c>
+      <c r="D12">
+        <v>0.1273583881898732</v>
+      </c>
+      <c r="E12">
+        <v>0.1430115681931322</v>
+      </c>
+      <c r="F12">
+        <v>0.1539863230519778</v>
+      </c>
+      <c r="G12">
+        <v>0.105513198511635</v>
+      </c>
+      <c r="H12">
+        <v>0.04659843093967869</v>
+      </c>
+      <c r="I12">
+        <v>0.04848780986769895</v>
+      </c>
+      <c r="J12">
+        <v>0.02695090414898368</v>
+      </c>
+      <c r="K12">
+        <v>0.579592557892147</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.7870685342112391</v>
+      </c>
+      <c r="N12">
+        <v>0.5871305873698247</v>
+      </c>
+      <c r="O12">
+        <v>0.414803479977243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.2176931385779693</v>
+      </c>
+      <c r="C13">
+        <v>0.07287493472562541</v>
+      </c>
+      <c r="D13">
+        <v>0.105496550094699</v>
+      </c>
+      <c r="E13">
+        <v>0.1220725082029715</v>
+      </c>
+      <c r="F13">
+        <v>0.1423312987207947</v>
+      </c>
+      <c r="G13">
+        <v>0.112603185855639</v>
+      </c>
+      <c r="H13">
+        <v>0.0713785937855294</v>
+      </c>
+      <c r="I13">
+        <v>0.04520454568989829</v>
+      </c>
+      <c r="J13">
+        <v>0.04384454630088617</v>
+      </c>
+      <c r="K13">
+        <v>0.4701371981406959</v>
+      </c>
+      <c r="L13">
+        <v>0.7870685342112391</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0.7367060118668982</v>
+      </c>
+      <c r="O13">
+        <v>0.5262233115832031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.234393352476874</v>
+      </c>
+      <c r="C14">
+        <v>0.05851326278157667</v>
+      </c>
+      <c r="D14">
+        <v>0.08412639427958928</v>
+      </c>
+      <c r="E14">
+        <v>0.09512240693885655</v>
+      </c>
+      <c r="F14">
+        <v>0.1442293421540255</v>
+      </c>
+      <c r="G14">
+        <v>0.1009540008600095</v>
+      </c>
+      <c r="H14">
+        <v>0.04404860095019378</v>
+      </c>
+      <c r="I14">
+        <v>0.03756079907040946</v>
+      </c>
+      <c r="J14">
+        <v>0.03170839590029936</v>
+      </c>
+      <c r="K14">
+        <v>0.3485758256677501</v>
+      </c>
+      <c r="L14">
+        <v>0.5871305873698247</v>
+      </c>
+      <c r="M14">
+        <v>0.7367060118668982</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0.725343151003367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.2662068439548389</v>
+      </c>
+      <c r="C15">
+        <v>0.03941070079777016</v>
+      </c>
+      <c r="D15">
+        <v>0.08390587088833205</v>
+      </c>
+      <c r="E15">
+        <v>0.1284904870904181</v>
+      </c>
+      <c r="F15">
+        <v>0.1632109749262028</v>
+      </c>
+      <c r="G15">
+        <v>0.0828050742055868</v>
+      </c>
+      <c r="H15">
+        <v>0.06626309611101169</v>
+      </c>
+      <c r="I15">
+        <v>0.06700263572099757</v>
+      </c>
+      <c r="J15">
+        <v>0.04182797502820503</v>
+      </c>
+      <c r="K15">
+        <v>0.2361965145932516</v>
+      </c>
+      <c r="L15">
+        <v>0.414803479977243</v>
+      </c>
+      <c r="M15">
+        <v>0.5262233115832031</v>
+      </c>
+      <c r="N15">
+        <v>0.725343151003367</v>
+      </c>
+      <c r="O15">
         <v>1</v>
       </c>
     </row>
@@ -797,13 +1129,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,8 +1166,20 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,345 +1187,653 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.4729922852137786</v>
+        <v>0.4330609574085371</v>
       </c>
       <c r="D2">
-        <v>0.6901102569343728</v>
+        <v>0.6655118804438259</v>
       </c>
       <c r="E2">
-        <v>0.8044370789797497</v>
+        <v>0.7897430905422589</v>
       </c>
       <c r="F2">
-        <v>0.8840395262810712</v>
+        <v>0.8704581936397668</v>
       </c>
       <c r="G2">
-        <v>0.00302247077466529</v>
+        <v>0.2472675005659684</v>
       </c>
       <c r="H2">
-        <v>-0.03579557037234876</v>
+        <v>0.2193149738806566</v>
       </c>
       <c r="I2">
-        <v>-0.09109095583315188</v>
+        <v>0.222585974325986</v>
       </c>
       <c r="J2">
-        <v>-0.09678019668825191</v>
+        <v>0.1281784779670869</v>
       </c>
       <c r="K2">
-        <v>-0.02183176469816126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>0.02957396037724908</v>
+      </c>
+      <c r="L2">
+        <v>9.987636415123879e-05</v>
+      </c>
+      <c r="M2">
+        <v>-0.07869321395134861</v>
+      </c>
+      <c r="N2">
+        <v>-0.029421223147782</v>
+      </c>
+      <c r="O2">
+        <v>0.04884231665961693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4729922852137786</v>
+        <v>0.4330609574085371</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.7305597417690334</v>
+        <v>0.7167000728995941</v>
       </c>
       <c r="E3">
-        <v>0.5920340408806753</v>
+        <v>0.5670409080260994</v>
       </c>
       <c r="F3">
-        <v>0.5275411078078179</v>
+        <v>0.4938153312158272</v>
       </c>
       <c r="G3">
-        <v>0.06448846864754129</v>
+        <v>-0.07247230082267915</v>
       </c>
       <c r="H3">
-        <v>0.05705208020767737</v>
+        <v>-0.00276708595239272</v>
       </c>
       <c r="I3">
-        <v>0.02804835063873044</v>
+        <v>0.03985029874797113</v>
       </c>
       <c r="J3">
-        <v>0.0120982596002009</v>
+        <v>0.1154948962842476</v>
       </c>
       <c r="K3">
-        <v>-0.009860778074716742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>0.03693937085203505</v>
+      </c>
+      <c r="L3">
+        <v>0.07670917161689415</v>
+      </c>
+      <c r="M3">
+        <v>0.0133036520889205</v>
+      </c>
+      <c r="N3">
+        <v>0.01020574998747685</v>
+      </c>
+      <c r="O3">
+        <v>-0.006798279483118198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6901102569343728</v>
+        <v>0.6655118804438259</v>
       </c>
       <c r="C4">
-        <v>0.7305597417690334</v>
+        <v>0.7167000728995941</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.8821312592640254</v>
+        <v>0.8734431208464923</v>
       </c>
       <c r="F4">
-        <v>0.784423274430184</v>
+        <v>0.7662072498531853</v>
       </c>
       <c r="G4">
-        <v>0.06165873075683553</v>
+        <v>-0.1242045559194827</v>
       </c>
       <c r="H4">
-        <v>0.06655296972199205</v>
+        <v>0.08679674349145654</v>
       </c>
       <c r="I4">
-        <v>0.01056023484997106</v>
+        <v>0.1844871839960389</v>
       </c>
       <c r="J4">
-        <v>-0.0139526959694265</v>
+        <v>0.1612452402496952</v>
       </c>
       <c r="K4">
-        <v>-0.02422121370538286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>0.08610040868634597</v>
+      </c>
+      <c r="L4">
+        <v>0.09641611528402612</v>
+      </c>
+      <c r="M4">
+        <v>-0.01074226339508677</v>
+      </c>
+      <c r="N4">
+        <v>-0.01038782406644952</v>
+      </c>
+      <c r="O4">
+        <v>-0.02846694850847131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8044370789797497</v>
+        <v>0.7897430905422589</v>
       </c>
       <c r="C5">
-        <v>0.5920340408806753</v>
+        <v>0.5670409080260994</v>
       </c>
       <c r="D5">
-        <v>0.8821312592640254</v>
+        <v>0.8734431208464923</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.9245869927607717</v>
+        <v>0.9178240755929409</v>
       </c>
       <c r="G5">
-        <v>0.04161615723471918</v>
+        <v>-0.1552230410725331</v>
       </c>
       <c r="H5">
-        <v>0.0234229969061627</v>
+        <v>0.204276119280341</v>
       </c>
       <c r="I5">
-        <v>-0.03422508723508579</v>
+        <v>0.234264506696324</v>
       </c>
       <c r="J5">
-        <v>-0.07898064669591516</v>
+        <v>0.1440321740135105</v>
       </c>
       <c r="K5">
-        <v>-0.03871357753927359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.0447816023057172</v>
+      </c>
+      <c r="L5">
+        <v>0.02282890863411559</v>
+      </c>
+      <c r="M5">
+        <v>-0.07366744153630074</v>
+      </c>
+      <c r="N5">
+        <v>-0.07802209542208723</v>
+      </c>
+      <c r="O5">
+        <v>-0.06720741955202122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8840395262810712</v>
+        <v>0.8704581936397668</v>
       </c>
       <c r="C6">
-        <v>0.5275411078078179</v>
+        <v>0.4938153312158272</v>
       </c>
       <c r="D6">
-        <v>0.784423274430184</v>
+        <v>0.7662072498531853</v>
       </c>
       <c r="E6">
-        <v>0.9245869927607717</v>
+        <v>0.9178240755929409</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.005438457833816277</v>
+        <v>-0.1150481319575194</v>
       </c>
       <c r="H6">
-        <v>-0.03770293669790101</v>
+        <v>0.170473973350257</v>
       </c>
       <c r="I6">
-        <v>-0.09849372760552391</v>
+        <v>0.1887661719530782</v>
       </c>
       <c r="J6">
-        <v>-0.1145253350653652</v>
+        <v>0.1147391554727173</v>
       </c>
       <c r="K6">
-        <v>-0.04473837849844414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>0.01550507648817274</v>
+      </c>
+      <c r="L6">
+        <v>-0.0293129764778488</v>
+      </c>
+      <c r="M6">
+        <v>-0.1259743010598151</v>
+      </c>
+      <c r="N6">
+        <v>-0.116717244420741</v>
+      </c>
+      <c r="O6">
+        <v>-0.07407026082327446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.00302247077466529</v>
+        <v>0.2472675005659684</v>
       </c>
       <c r="C7">
-        <v>0.06448846864754129</v>
+        <v>-0.07247230082267915</v>
       </c>
       <c r="D7">
-        <v>0.06165873075683553</v>
+        <v>-0.1242045559194827</v>
       </c>
       <c r="E7">
-        <v>0.04161615723471918</v>
+        <v>-0.1552230410725331</v>
       </c>
       <c r="F7">
-        <v>0.005438457833816277</v>
+        <v>-0.1150481319575194</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.5713373259249023</v>
+        <v>0.01928355093173541</v>
       </c>
       <c r="I7">
-        <v>0.4459063595125617</v>
+        <v>0.01226234441237572</v>
       </c>
       <c r="J7">
-        <v>0.3295532279831485</v>
+        <v>-0.004048006205346375</v>
       </c>
       <c r="K7">
-        <v>0.2253041979054554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>-0.01579355638192838</v>
+      </c>
+      <c r="L7">
+        <v>-0.0216623812022998</v>
+      </c>
+      <c r="M7">
+        <v>-0.010900270768873</v>
+      </c>
+      <c r="N7">
+        <v>0.03269746188326678</v>
+      </c>
+      <c r="O7">
+        <v>0.04044262961926042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.03579557037234876</v>
+        <v>0.2193149738806566</v>
       </c>
       <c r="C8">
-        <v>0.05705208020767737</v>
+        <v>-0.00276708595239272</v>
       </c>
       <c r="D8">
-        <v>0.06655296972199205</v>
+        <v>0.08679674349145654</v>
       </c>
       <c r="E8">
-        <v>0.0234229969061627</v>
+        <v>0.204276119280341</v>
       </c>
       <c r="F8">
-        <v>-0.03770293669790101</v>
+        <v>0.170473973350257</v>
       </c>
       <c r="G8">
-        <v>0.5713373259249023</v>
+        <v>0.01928355093173541</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.7803774229341747</v>
+        <v>0.7709802498942736</v>
       </c>
       <c r="J8">
-        <v>0.5653461631268599</v>
+        <v>0.4364769363155884</v>
       </c>
       <c r="K8">
-        <v>0.3764422499615819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>-0.004304608043675569</v>
+      </c>
+      <c r="L8">
+        <v>-0.004507792955744559</v>
+      </c>
+      <c r="M8">
+        <v>0.00122467550723183</v>
+      </c>
+      <c r="N8">
+        <v>0.0509515245068904</v>
+      </c>
+      <c r="O8">
+        <v>-0.03332456205958486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.09109095583315188</v>
+        <v>0.222585974325986</v>
       </c>
       <c r="C9">
-        <v>0.02804835063873044</v>
+        <v>0.03985029874797113</v>
       </c>
       <c r="D9">
-        <v>0.01056023484997106</v>
+        <v>0.1844871839960389</v>
       </c>
       <c r="E9">
-        <v>-0.03422508723508579</v>
+        <v>0.234264506696324</v>
       </c>
       <c r="F9">
-        <v>-0.09849372760552391</v>
+        <v>0.1887661719530782</v>
       </c>
       <c r="G9">
-        <v>0.4459063595125617</v>
+        <v>0.01226234441237572</v>
       </c>
       <c r="H9">
-        <v>0.7803774229341747</v>
+        <v>0.7709802498942736</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.7143538042818601</v>
+        <v>0.5650105329920545</v>
       </c>
       <c r="K9">
-        <v>0.4830813284741217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0.0243194971991294</v>
+      </c>
+      <c r="L9">
+        <v>0.01342636160473551</v>
+      </c>
+      <c r="M9">
+        <v>-0.0004454963480744754</v>
+      </c>
+      <c r="N9">
+        <v>0.05567064014303169</v>
+      </c>
+      <c r="O9">
+        <v>-0.01980827666667291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.09678019668825191</v>
+        <v>0.1281784779670869</v>
       </c>
       <c r="C10">
-        <v>0.0120982596002009</v>
+        <v>0.1154948962842476</v>
       </c>
       <c r="D10">
-        <v>-0.0139526959694265</v>
+        <v>0.1612452402496952</v>
       </c>
       <c r="E10">
-        <v>-0.07898064669591516</v>
+        <v>0.1440321740135105</v>
       </c>
       <c r="F10">
-        <v>-0.1145253350653652</v>
+        <v>0.1147391554727173</v>
       </c>
       <c r="G10">
-        <v>0.3295532279831485</v>
+        <v>-0.004048006205346375</v>
       </c>
       <c r="H10">
-        <v>0.5653461631268599</v>
+        <v>0.4364769363155884</v>
       </c>
       <c r="I10">
-        <v>0.7143538042818601</v>
+        <v>0.5650105329920545</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.7170368440135964</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>0.002310950985104893</v>
+      </c>
+      <c r="L10">
+        <v>0.02301167670824426</v>
+      </c>
+      <c r="M10">
+        <v>-0.003078533062156263</v>
+      </c>
+      <c r="N10">
+        <v>0.02055588217247652</v>
+      </c>
+      <c r="O10">
+        <v>-0.003817051262979457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.02183176469816126</v>
+        <v>0.02957396037724908</v>
       </c>
       <c r="C11">
-        <v>-0.009860778074716742</v>
+        <v>0.03693937085203505</v>
       </c>
       <c r="D11">
-        <v>-0.02422121370538286</v>
+        <v>0.08610040868634597</v>
       </c>
       <c r="E11">
-        <v>-0.03871357753927359</v>
+        <v>0.0447816023057172</v>
       </c>
       <c r="F11">
-        <v>-0.04473837849844414</v>
+        <v>0.01550507648817274</v>
       </c>
       <c r="G11">
-        <v>0.2253041979054554</v>
+        <v>-0.01579355638192838</v>
       </c>
       <c r="H11">
-        <v>0.3764422499615819</v>
+        <v>-0.004304608043675569</v>
       </c>
       <c r="I11">
-        <v>0.4830813284741217</v>
+        <v>0.0243194971991294</v>
       </c>
       <c r="J11">
-        <v>0.7170368440135964</v>
+        <v>0.002310950985104893</v>
       </c>
       <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5731825298773506</v>
+      </c>
+      <c r="M11">
+        <v>0.4472809970454996</v>
+      </c>
+      <c r="N11">
+        <v>0.3314236728882413</v>
+      </c>
+      <c r="O11">
+        <v>0.2238858399002987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>9.987636415123879e-05</v>
+      </c>
+      <c r="C12">
+        <v>0.07670917161689415</v>
+      </c>
+      <c r="D12">
+        <v>0.09641611528402612</v>
+      </c>
+      <c r="E12">
+        <v>0.02282890863411559</v>
+      </c>
+      <c r="F12">
+        <v>-0.0293129764778488</v>
+      </c>
+      <c r="G12">
+        <v>-0.0216623812022998</v>
+      </c>
+      <c r="H12">
+        <v>-0.004507792955744559</v>
+      </c>
+      <c r="I12">
+        <v>0.01342636160473551</v>
+      </c>
+      <c r="J12">
+        <v>0.02301167670824426</v>
+      </c>
+      <c r="K12">
+        <v>0.5731825298773506</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.7808364830204434</v>
+      </c>
+      <c r="N12">
+        <v>0.5664610657510041</v>
+      </c>
+      <c r="O12">
+        <v>0.3745994389498238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-0.07869321395134861</v>
+      </c>
+      <c r="C13">
+        <v>0.0133036520889205</v>
+      </c>
+      <c r="D13">
+        <v>-0.01074226339508677</v>
+      </c>
+      <c r="E13">
+        <v>-0.07366744153630074</v>
+      </c>
+      <c r="F13">
+        <v>-0.1259743010598151</v>
+      </c>
+      <c r="G13">
+        <v>-0.010900270768873</v>
+      </c>
+      <c r="H13">
+        <v>0.00122467550723183</v>
+      </c>
+      <c r="I13">
+        <v>-0.0004454963480744754</v>
+      </c>
+      <c r="J13">
+        <v>-0.003078533062156263</v>
+      </c>
+      <c r="K13">
+        <v>0.4472809970454996</v>
+      </c>
+      <c r="L13">
+        <v>0.7808364830204434</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0.7139635152248205</v>
+      </c>
+      <c r="O13">
+        <v>0.4832209264828278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-0.029421223147782</v>
+      </c>
+      <c r="C14">
+        <v>0.01020574998747685</v>
+      </c>
+      <c r="D14">
+        <v>-0.01038782406644952</v>
+      </c>
+      <c r="E14">
+        <v>-0.07802209542208723</v>
+      </c>
+      <c r="F14">
+        <v>-0.116717244420741</v>
+      </c>
+      <c r="G14">
+        <v>0.03269746188326678</v>
+      </c>
+      <c r="H14">
+        <v>0.0509515245068904</v>
+      </c>
+      <c r="I14">
+        <v>0.05567064014303169</v>
+      </c>
+      <c r="J14">
+        <v>0.02055588217247652</v>
+      </c>
+      <c r="K14">
+        <v>0.3314236728882413</v>
+      </c>
+      <c r="L14">
+        <v>0.5664610657510041</v>
+      </c>
+      <c r="M14">
+        <v>0.7139635152248205</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0.718656742592504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.04884231665961693</v>
+      </c>
+      <c r="C15">
+        <v>-0.006798279483118198</v>
+      </c>
+      <c r="D15">
+        <v>-0.02846694850847131</v>
+      </c>
+      <c r="E15">
+        <v>-0.06720741955202122</v>
+      </c>
+      <c r="F15">
+        <v>-0.07407026082327446</v>
+      </c>
+      <c r="G15">
+        <v>0.04044262961926042</v>
+      </c>
+      <c r="H15">
+        <v>-0.03332456205958486</v>
+      </c>
+      <c r="I15">
+        <v>-0.01980827666667291</v>
+      </c>
+      <c r="J15">
+        <v>-0.003817051262979457</v>
+      </c>
+      <c r="K15">
+        <v>0.2238858399002987</v>
+      </c>
+      <c r="L15">
+        <v>0.3745994389498238</v>
+      </c>
+      <c r="M15">
+        <v>0.4832209264828278</v>
+      </c>
+      <c r="N15">
+        <v>0.718656742592504</v>
+      </c>
+      <c r="O15">
         <v>1</v>
       </c>
     </row>
